--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="181">
   <si>
     <t>TC</t>
   </si>
@@ -545,9 +550,6 @@
     <t>January-2018</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\Statutory scenarios for 201718\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -564,14 +566,20 @@
   </si>
   <si>
     <t>01/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx
+</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +703,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -742,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -775,9 +786,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,6 +838,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -992,15 +1037,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.04052734375" collapsed="true"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1028,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1042,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1056,7 +1101,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1070,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1084,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -1098,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -1112,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1126,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1140,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -1154,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -1168,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1182,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1196,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -1210,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1234,22 +1279,22 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.21875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1293,7 +1338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>166</v>
       </c>
@@ -1314,10 +1359,10 @@
         <v>157</v>
       </c>
       <c r="H2" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>173</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>125</v>
@@ -1338,24 +1383,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1399,7 +1444,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>166</v>
       </c>
@@ -1422,7 +1467,7 @@
         <v>158</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>163</v>
@@ -1431,7 +1476,7 @@
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -1450,13 +1495,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.77734375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1476,12 +1521,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>113</v>
@@ -1504,23 +1549,23 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.33203125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
-    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
-    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1711,7 +1756,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>102</v>
       </c>
@@ -1898,8 +1943,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId23"/>
-    <hyperlink ref="D2" r:id="rId24"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1913,14 +1958,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1946,7 +1991,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
@@ -1979,13 +2024,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2002,7 +2047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
@@ -2023,27 +2068,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.77734375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="25.5546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2087,7 +2132,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>166</v>
       </c>
@@ -2110,7 +2155,7 @@
         <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>160</v>
@@ -2119,7 +2164,7 @@
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2135,22 +2180,22 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2194,7 +2239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>166</v>
       </c>
@@ -2217,7 +2262,7 @@
         <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>161</v>
@@ -2226,7 +2271,7 @@
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2241,24 +2286,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.21875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2302,7 +2347,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>166</v>
       </c>
@@ -2325,7 +2370,7 @@
         <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>162</v>
@@ -2334,7 +2379,7 @@
         <v>125</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
@@ -2353,20 +2398,20 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.77734375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2404,27 +2449,27 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>179</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>156</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="180">
   <si>
     <t>TC</t>
   </si>
@@ -568,11 +568,7 @@
     <t>01/26/2018</t>
   </si>
   <si>
-    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx
-</t>
-  </si>
-  <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\Automation Test Result for Statutory Scenarios201718.xlsx</t>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1038,7 @@
     <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1359,7 +1355,7 @@
         <v>157</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>173</v>
@@ -1383,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1467,7 +1463,7 @@
         <v>158</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>163</v>
@@ -2068,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2258,7 @@
         <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>161</v>
@@ -2370,7 +2366,7 @@
         <v>154</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>162</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="15165" windowHeight="5400" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
     <sheet name="ProcessPayrollForJan16MonthSPP" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -529,12 +524,6 @@
     <t>PayinStartPeriod</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>Payroll Suite StatutoryPaternityPayCase2201718.xlsx</t>
   </si>
   <si>
@@ -568,13 +557,19 @@
     <t>01/26/2018</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_StatutoryScenarios\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
+    <t>DONT TOUCH AUTO DIRSPP2 EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRSPP2_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_StatutoryScenarios 201718\\201718 Automation TestResult For Statutory Scenarios.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,7 +638,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -687,6 +682,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -749,7 +745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -782,26 +778,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,23 +813,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1033,15 +995,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1083,7 +1045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1139,7 +1101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -1153,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1167,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1181,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -1195,7 +1157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -1209,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -1223,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1237,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>152</v>
       </c>
@@ -1251,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1274,23 +1236,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1334,22 +1297,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>166</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>167</v>
+      <c r="C2" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>157</v>
@@ -1358,7 +1321,7 @@
         <v>179</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>125</v>
@@ -1371,6 +1334,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1379,24 +1345,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.88671875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1440,24 +1407,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>166</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>167</v>
+      <c r="C2" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>158</v>
@@ -1472,13 +1439,16 @@
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1491,13 +1461,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1522,7 +1492,7 @@
         <v>153</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>113</v>
@@ -1545,19 +1515,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
     <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1954,14 +1924,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2020,13 +1990,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2043,7 +2013,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
@@ -2064,27 +2034,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2128,24 +2098,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>166</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>167</v>
+      <c r="C2" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>154</v>
@@ -2160,13 +2130,16 @@
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2175,23 +2148,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2235,24 +2208,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>166</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>167</v>
+      <c r="C2" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>154</v>
@@ -2267,13 +2240,16 @@
         <v>125</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2282,24 +2258,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2343,24 +2319,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>166</v>
+    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>167</v>
+      <c r="C2" t="s">
+        <v>178</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>154</v>
@@ -2375,13 +2351,16 @@
         <v>125</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2394,17 +2373,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2450,22 +2429,22 @@
         <v>153</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>156</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="15168" windowHeight="5400" firstSheet="8" activeTab="10"/>
+    <workbookView activeTab="10" firstSheet="8" windowHeight="5400" windowWidth="15168" xWindow="396" yWindow="36"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetData" sheetId="14" r:id="rId2"/>
-    <sheet name="CreateFemaleEmployee" sheetId="2" r:id="rId3"/>
-    <sheet name="UpdateTaxCodeAndAnnualSalary" sheetId="6" r:id="rId4"/>
-    <sheet name="SmallEmployerRelief" sheetId="3" r:id="rId5"/>
-    <sheet name="ProcessPayrollForJulyMonthSPP" sheetId="7" r:id="rId6"/>
-    <sheet name="ProcessPayrollForAugMonthSPP" sheetId="8" r:id="rId7"/>
-    <sheet name="ProcessPayrollForSepMonthSPP" sheetId="9" r:id="rId8"/>
-    <sheet name="CreateLeaveRequest" sheetId="10" r:id="rId9"/>
-    <sheet name="AverageWeeklyEarningsTestReport" sheetId="11" r:id="rId10"/>
-    <sheet name="ProcessPayrollForJan16MonthSPP" sheetId="12" r:id="rId11"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="ResetData" r:id="rId2" sheetId="14"/>
+    <sheet name="CreateFemaleEmployee" r:id="rId3" sheetId="2"/>
+    <sheet name="UpdateTaxCodeAndAnnualSalary" r:id="rId4" sheetId="6"/>
+    <sheet name="SmallEmployerRelief" r:id="rId5" sheetId="3"/>
+    <sheet name="ProcessPayrollForJulyMonthSPP" r:id="rId6" sheetId="7"/>
+    <sheet name="ProcessPayrollForAugMonthSPP" r:id="rId7" sheetId="8"/>
+    <sheet name="ProcessPayrollForSepMonthSPP" r:id="rId8" sheetId="9"/>
+    <sheet name="CreateLeaveRequest" r:id="rId9" sheetId="10"/>
+    <sheet name="AverageWeeklyEarningsTestReport" r:id="rId10" sheetId="11"/>
+    <sheet name="ProcessPayrollForJan16MonthSPP" r:id="rId11" sheetId="12"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="180">
   <si>
     <t>TC</t>
   </si>
@@ -570,6 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,63 +635,63 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -707,10 +708,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -868,7 +869,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -877,13 +878,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -893,7 +894,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -902,7 +903,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -911,7 +912,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -921,12 +922,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -957,7 +958,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -976,7 +977,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -988,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -997,13 +998,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.11328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1031,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -1073,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>148</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -1115,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -1228,32 +1229,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="62.4" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>177</v>
       </c>
@@ -1335,35 +1336,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>177</v>
       </c>
@@ -1447,14 +1448,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1463,11 +1464,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.6640625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="20.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
@@ -1502,13 +1503,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1517,18 +1518,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.6640625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="22.33203125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="24.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="22.33203125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.25">
@@ -1909,15 +1910,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1926,12 +1927,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="24.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
@@ -1978,12 +1979,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1992,11 +1993,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="17.399999999999999" r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>153</v>
       </c>
@@ -2025,36 +2026,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="42.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="42.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>177</v>
       </c>
@@ -2138,33 +2139,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="36.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>177</v>
       </c>
@@ -2248,34 +2249,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>116</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="19" customFormat="1" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="55.95" r="2" s="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>177</v>
       </c>
@@ -2359,14 +2360,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2375,15 +2376,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2457,6 +2458,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="180">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite StatutoryPaternityPayCase2201718.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="180">
   <si>
     <t>TC</t>
   </si>
